--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\Downloads\CURSOS\nuevosonline\Ofimatica\Excel\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD7639-4CFA-4D59-A55C-F1DF5C8F1B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F7F3D-8D34-4F23-BE36-E45C74F585A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="11520" xr2:uid="{8B6134CC-5B2E-4F73-8CAE-13053EF6A2BA}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20445" windowHeight="11520" activeTab="1" xr2:uid="{8B6134CC-5B2E-4F73-8CAE-13053EF6A2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$O$37</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="0">Hoja2!$T$1:$Z$2</definedName>
     <definedName name="datos">BaseDeDatos[Producto]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja2!$A$1:$N$370</definedName>
+    <definedName name="frutas">Hoja1!$P$5:$P$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="112">
   <si>
     <t>Documento</t>
   </si>
@@ -501,6 +503,42 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -553,42 +591,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -633,20 +635,20 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{09ADC488-65C6-406F-8D3D-78FE46686097}" uniqueName="1" name="Documento" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F198DACB-A6A4-4E5F-89B5-0875A273E8ED}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F198DACB-A6A4-4E5F-89B5-0875A273E8ED}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{8E6452CE-AEA0-4371-B850-947DAD3C85F9}" uniqueName="3" name="Id Cliente" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4F4AC02E-C831-4A9F-9967-7BBE021B2FC3}" uniqueName="4" name="Cliente" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{66B72D57-8B30-4D09-A9A1-1911B914BD5C}" uniqueName="5" name="Ciudad" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3DA0C2BB-9549-43A3-972C-48749CB0F9B4}" uniqueName="6" name="Provincia" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{D29EEE46-731A-4868-AF24-F49C06C954CB}" uniqueName="7" name="Vendedor" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{243B8F72-024E-42F0-8CCD-440581E1E590}" uniqueName="8" name="Empresa" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{AEFA5A9B-CA8A-4652-9399-91AFAF679D62}" uniqueName="9" name="Forma de pago" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{F315B0FC-2AB4-4F72-BCD2-D091E92A6AB4}" uniqueName="10" name="Producto" queryTableFieldId="10" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{13F89592-29F4-49FD-9778-60766F2E4147}" uniqueName="11" name="Categoría" queryTableFieldId="11" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{44D9630F-F705-479A-9677-2BBEB5F55711}" uniqueName="12" name="Precio" queryTableFieldId="12" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4F4AC02E-C831-4A9F-9967-7BBE021B2FC3}" uniqueName="4" name="Cliente" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{66B72D57-8B30-4D09-A9A1-1911B914BD5C}" uniqueName="5" name="Ciudad" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3DA0C2BB-9549-43A3-972C-48749CB0F9B4}" uniqueName="6" name="Provincia" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{D29EEE46-731A-4868-AF24-F49C06C954CB}" uniqueName="7" name="Vendedor" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{243B8F72-024E-42F0-8CCD-440581E1E590}" uniqueName="8" name="Empresa" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{AEFA5A9B-CA8A-4652-9399-91AFAF679D62}" uniqueName="9" name="Forma de pago" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{F315B0FC-2AB4-4F72-BCD2-D091E92A6AB4}" uniqueName="10" name="Producto" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{13F89592-29F4-49FD-9778-60766F2E4147}" uniqueName="11" name="Categoría" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{44D9630F-F705-479A-9677-2BBEB5F55711}" uniqueName="12" name="Precio" queryTableFieldId="12" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{2EAE67A7-E349-4A23-8A52-E241325D558C}" uniqueName="13" name="Cantidad" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{5F6A3E4A-EFE2-45E8-A56E-61FFC30F9778}" uniqueName="14" name="Ventas" queryTableFieldId="14" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{C5A0E731-B787-4E10-BC2B-067529078A1C}" uniqueName="15" name="ordenar" queryTableFieldId="15" dataDxfId="5">
+    <tableColumn id="14" xr3:uid="{5F6A3E4A-EFE2-45E8-A56E-61FFC30F9778}" uniqueName="14" name="Ventas" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{C5A0E731-B787-4E10-BC2B-067529078A1C}" uniqueName="15" name="ordenar" queryTableFieldId="15" dataDxfId="0">
       <calculatedColumnFormula>IF(ISEVEN(ROW()),"Si","No")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -953,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EE4356-0625-43C5-9481-C01F5D403C16}">
   <dimension ref="A1:AK414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -23044,16 +23046,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:N370">
-    <cfRule type="expression" dxfId="4" priority="48">
+    <cfRule type="expression" dxfId="16" priority="48">
       <formula>$H2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="49">
+    <cfRule type="expression" dxfId="15" priority="49">
       <formula>RIGHT($H2)="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
+    <cfRule type="expression" dxfId="14" priority="50">
       <formula>RIGHT($H2)="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="51">
+    <cfRule type="expression" dxfId="13" priority="51">
       <formula>RIGHT($H2)="C"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23076,7 +23078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O370">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23171,19 +23173,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1125AF-E7F3-4134-87CC-89FA5377F1C3}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23237,7 +23240,7 @@
         <v>Cheque</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -23295,7 +23298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23346,7 +23349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -23393,7 +23396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29</v>
       </c>
@@ -23439,12 +23442,58 @@
       <c r="O5" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" t="e" cm="1">
-        <f t="array" ref="Q5">_xlfn._xlws.FILTER(A2:O37,Q1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P5" t="str" cm="1">
+        <f t="array" ref="P5:P8">_xlfn._xlws.SORT(_xlfn.UNIQUE(J2:J37),1,-1)</f>
+        <v>Techai</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5:AE18">_xlfn._xlws.FILTER(A2:O37,I2:I37=Q1)</f>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>43930</v>
+      </c>
+      <c r="S5">
+        <v>9259377217</v>
+      </c>
+      <c r="T5" t="str">
+        <v>Empresa AA</v>
+      </c>
+      <c r="U5" t="str">
+        <v>Cuenca</v>
+      </c>
+      <c r="V5" t="str">
+        <v>Azuay</v>
+      </c>
+      <c r="W5" t="str">
+        <v>Mayra Aguilar Sepúlveda</v>
+      </c>
+      <c r="X5" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB5">
+        <v>14</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>140</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>47</v>
       </c>
@@ -23490,8 +23539,56 @@
       <c r="O6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P6" t="str">
+        <v>Peras secas</v>
+      </c>
+      <c r="Q6">
+        <v>47</v>
+      </c>
+      <c r="R6">
+        <v>43920</v>
+      </c>
+      <c r="S6">
+        <v>9029002933</v>
+      </c>
+      <c r="T6" t="str">
+        <v>Empresa F</v>
+      </c>
+      <c r="U6" t="str">
+        <v>Ibarra</v>
+      </c>
+      <c r="V6" t="str">
+        <v>Imbabura</v>
+      </c>
+      <c r="W6" t="str">
+        <v>Luis Miguel Valdés Garza</v>
+      </c>
+      <c r="X6" t="str">
+        <v>Empresa de embarque C</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>Peras secas</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>Frutas secas</v>
+      </c>
+      <c r="AB6">
+        <v>420</v>
+      </c>
+      <c r="AC6">
+        <v>96</v>
+      </c>
+      <c r="AD6">
+        <v>40320</v>
+      </c>
+      <c r="AE6" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>53</v>
       </c>
@@ -23537,8 +23634,56 @@
       <c r="O7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P7" t="str">
+        <v>Mermelada de zarzamora</v>
+      </c>
+      <c r="Q7">
+        <v>60</v>
+      </c>
+      <c r="R7">
+        <v>44171</v>
+      </c>
+      <c r="S7">
+        <v>2230409971</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U7" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V7" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W7" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X7" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB7">
+        <v>196</v>
+      </c>
+      <c r="AC7">
+        <v>72</v>
+      </c>
+      <c r="AD7">
+        <v>14112</v>
+      </c>
+      <c r="AE7" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -23584,8 +23729,56 @@
       <c r="O8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P8" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="Q8">
+        <v>116</v>
+      </c>
+      <c r="R8">
+        <v>43876</v>
+      </c>
+      <c r="S8">
+        <v>1951835035</v>
+      </c>
+      <c r="T8" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U8" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V8" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W8" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X8" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB8">
+        <v>196</v>
+      </c>
+      <c r="AC8">
+        <v>21</v>
+      </c>
+      <c r="AD8">
+        <v>4116</v>
+      </c>
+      <c r="AE8" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>62</v>
       </c>
@@ -23631,8 +23824,53 @@
       <c r="O9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>143</v>
+      </c>
+      <c r="R9">
+        <v>43927</v>
+      </c>
+      <c r="S9">
+        <v>9715216432</v>
+      </c>
+      <c r="T9" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U9" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V9" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W9" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X9" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB9">
+        <v>196</v>
+      </c>
+      <c r="AC9">
+        <v>79</v>
+      </c>
+      <c r="AD9">
+        <v>15484</v>
+      </c>
+      <c r="AE9" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -23678,8 +23916,53 @@
       <c r="O10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>161</v>
+      </c>
+      <c r="R10">
+        <v>44018</v>
+      </c>
+      <c r="S10">
+        <v>8313545064</v>
+      </c>
+      <c r="T10" t="str">
+        <v>Empresa F</v>
+      </c>
+      <c r="U10" t="str">
+        <v>Ibarra</v>
+      </c>
+      <c r="V10" t="str">
+        <v>Imbabura</v>
+      </c>
+      <c r="W10" t="str">
+        <v>Luis Miguel Valdés Garza</v>
+      </c>
+      <c r="X10" t="str">
+        <v>Empresa de embarque C</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>Peras secas</v>
+      </c>
+      <c r="AA10" t="str">
+        <v>Frutas secas</v>
+      </c>
+      <c r="AB10">
+        <v>420</v>
+      </c>
+      <c r="AC10">
+        <v>46</v>
+      </c>
+      <c r="AD10">
+        <v>19320</v>
+      </c>
+      <c r="AE10" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>116</v>
       </c>
@@ -23725,8 +24008,53 @@
       <c r="O11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>177</v>
+      </c>
+      <c r="R11">
+        <v>43859</v>
+      </c>
+      <c r="S11">
+        <v>1661667624</v>
+      </c>
+      <c r="T11" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U11" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V11" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W11" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X11" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB11">
+        <v>196</v>
+      </c>
+      <c r="AC11">
+        <v>23</v>
+      </c>
+      <c r="AD11">
+        <v>4508</v>
+      </c>
+      <c r="AE11" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>118</v>
       </c>
@@ -23772,8 +24100,53 @@
       <c r="O12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>214</v>
+      </c>
+      <c r="R12">
+        <v>43886</v>
+      </c>
+      <c r="S12">
+        <v>5189485028</v>
+      </c>
+      <c r="T12" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U12" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V12" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W12" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X12" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB12">
+        <v>196</v>
+      </c>
+      <c r="AC12">
+        <v>42</v>
+      </c>
+      <c r="AD12">
+        <v>8232</v>
+      </c>
+      <c r="AE12" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>136</v>
       </c>
@@ -23819,8 +24192,53 @@
       <c r="O13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>235</v>
+      </c>
+      <c r="R13">
+        <v>44142</v>
+      </c>
+      <c r="S13">
+        <v>2932971142</v>
+      </c>
+      <c r="T13" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U13" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V13" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W13" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X13" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB13">
+        <v>196</v>
+      </c>
+      <c r="AC13">
+        <v>50</v>
+      </c>
+      <c r="AD13">
+        <v>9800</v>
+      </c>
+      <c r="AE13" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>143</v>
       </c>
@@ -23866,8 +24284,53 @@
       <c r="O14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>267</v>
+      </c>
+      <c r="R14">
+        <v>43907</v>
+      </c>
+      <c r="S14">
+        <v>2294414293</v>
+      </c>
+      <c r="T14" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U14" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V14" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W14" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X14" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA14" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB14">
+        <v>196</v>
+      </c>
+      <c r="AC14">
+        <v>78</v>
+      </c>
+      <c r="AD14">
+        <v>15288</v>
+      </c>
+      <c r="AE14" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>145</v>
       </c>
@@ -23913,8 +24376,53 @@
       <c r="O15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>44130</v>
+      </c>
+      <c r="S15">
+        <v>6897506437</v>
+      </c>
+      <c r="T15" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U15" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V15" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W15" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X15" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA15" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB15">
+        <v>196</v>
+      </c>
+      <c r="AC15">
+        <v>38</v>
+      </c>
+      <c r="AD15">
+        <v>7448</v>
+      </c>
+      <c r="AE15" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>161</v>
       </c>
@@ -23960,8 +24468,53 @@
       <c r="O16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>313</v>
+      </c>
+      <c r="R16">
+        <v>43953</v>
+      </c>
+      <c r="S16">
+        <v>3833780472</v>
+      </c>
+      <c r="T16" t="str">
+        <v>Empresa AA</v>
+      </c>
+      <c r="U16" t="str">
+        <v>Cuenca</v>
+      </c>
+      <c r="V16" t="str">
+        <v>Azuay</v>
+      </c>
+      <c r="W16" t="str">
+        <v>Mayra Aguilar Sepúlveda</v>
+      </c>
+      <c r="X16" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB16">
+        <v>196</v>
+      </c>
+      <c r="AC16">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>2744</v>
+      </c>
+      <c r="AE16" t="str">
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>170</v>
       </c>
@@ -24007,8 +24560,53 @@
       <c r="O17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>348</v>
+      </c>
+      <c r="R17">
+        <v>43959</v>
+      </c>
+      <c r="S17">
+        <v>7020598503</v>
+      </c>
+      <c r="T17" t="str">
+        <v>Empresa CC</v>
+      </c>
+      <c r="U17" t="str">
+        <v>Guayaquil</v>
+      </c>
+      <c r="V17" t="str">
+        <v>Guayas</v>
+      </c>
+      <c r="W17" t="str">
+        <v>José de Jesús Morales</v>
+      </c>
+      <c r="X17" t="str">
+        <v>Empresa de embarque B</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z17" t="str">
+        <v>Cerveza</v>
+      </c>
+      <c r="AA17" t="str">
+        <v>Bebidas</v>
+      </c>
+      <c r="AB17">
+        <v>196</v>
+      </c>
+      <c r="AC17">
+        <v>96</v>
+      </c>
+      <c r="AD17">
+        <v>18816</v>
+      </c>
+      <c r="AE17" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>177</v>
       </c>
@@ -24054,8 +24652,57 @@
       <c r="O18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45460</v>
+      </c>
+      <c r="Q18">
+        <v>366</v>
+      </c>
+      <c r="R18">
+        <v>43986</v>
+      </c>
+      <c r="S18">
+        <v>8977261174</v>
+      </c>
+      <c r="T18" t="str">
+        <v>Empresa F</v>
+      </c>
+      <c r="U18" t="str">
+        <v>Ibarra</v>
+      </c>
+      <c r="V18" t="str">
+        <v>Imbabura</v>
+      </c>
+      <c r="W18" t="str">
+        <v>Luis Miguel Valdés Garza</v>
+      </c>
+      <c r="X18" t="str">
+        <v>Empresa de embarque C</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>Cheque</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>Peras secas</v>
+      </c>
+      <c r="AA18" t="str">
+        <v>Frutas secas</v>
+      </c>
+      <c r="AB18">
+        <v>420</v>
+      </c>
+      <c r="AC18">
+        <v>33</v>
+      </c>
+      <c r="AD18">
+        <v>13860</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>179</v>
       </c>
@@ -24102,7 +24749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>207</v>
       </c>
@@ -24148,8 +24795,16 @@
       <c r="O20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" t="str">
+        <f>UPPER(N1)</f>
+        <v>VENTAS</v>
+      </c>
+      <c r="R20" t="str">
+        <f>LOWER(N1)</f>
+        <v>ventas</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>214</v>
       </c>
@@ -24195,8 +24850,18 @@
       <c r="O21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" cm="1">
+        <f t="array" ref="U21:U25">FREQUENCY(S21:S26,T21:T24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>216</v>
       </c>
@@ -24242,8 +24907,24 @@
       <c r="O22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f>MATCH(R22,P5:P8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>228</v>
       </c>
@@ -24289,8 +24970,17 @@
       <c r="O23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>235</v>
       </c>
@@ -24336,8 +25026,21 @@
       <c r="O24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" t="str" cm="1">
+        <f t="array" ref="Q24">INDEX(P5:P8,Q22,1)</f>
+        <v>Cerveza</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>237</v>
       </c>
@@ -24383,8 +25086,14 @@
       <c r="O25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>260</v>
       </c>
@@ -24430,8 +25139,11 @@
       <c r="O26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>267</v>
       </c>
@@ -24478,7 +25190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>269</v>
       </c>
@@ -24525,7 +25237,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>293</v>
       </c>
@@ -24572,7 +25284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>300</v>
       </c>
@@ -24619,7 +25331,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>302</v>
       </c>
@@ -24666,7 +25378,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>313</v>
       </c>
@@ -24986,15 +25698,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1" xr:uid="{0F4B5DA8-1385-4BD6-ACD9-4CB1028CFDB6}">
       <formula1>$R$1:$R$2</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R22" xr:uid="{A0B991E1-0222-40EB-901F-36CA3B09267E}">
+      <formula1>frutas</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="Q5" evalError="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72FA39D-C6F4-4B25-AFF2-068645F310B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\Downloads\CURSOS\nuevosonline\Ofimatica\Excel\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F7F3D-8D34-4F23-BE36-E45C74F585A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2E241-1A1F-47E8-A785-39A3E287170D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20445" windowHeight="11520" activeTab="1" xr2:uid="{8B6134CC-5B2E-4F73-8CAE-13053EF6A2BA}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20445" windowHeight="11520" activeTab="2" xr2:uid="{8B6134CC-5B2E-4F73-8CAE-13053EF6A2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -953,6 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EE4356-0625-43C5-9481-C01F5D403C16}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AK414"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -23173,10 +23174,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1125AF-E7F3-4134-87CC-89FA5377F1C3}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24654,7 +24656,7 @@
       </c>
       <c r="P18" s="1">
         <f ca="1">TODAY()</f>
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="Q18">
         <v>366</v>
@@ -24970,6 +24972,9 @@
       <c r="O23" t="s">
         <v>111</v>
       </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
       <c r="S23">
         <v>1</v>
       </c>
@@ -25030,6 +25035,9 @@
         <f t="array" ref="Q24">INDEX(P5:P8,Q22,1)</f>
         <v>Cerveza</v>
       </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
       <c r="S24">
         <v>3</v>
       </c>
@@ -25085,6 +25093,14 @@
       </c>
       <c r="O25" t="s">
         <v>110</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(S21:S26,T21:T24,_xlfn.ANCHORARRAY(U21))</f>
+        <v>31</v>
+      </c>
+      <c r="R25">
+        <f>SUM(S21:S26 R23:T24)</f>
+        <v>4</v>
       </c>
       <c r="S25">
         <v>3</v>
@@ -25712,12 +25728,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72FA39D-C6F4-4B25-AFF2-068645F310B6}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B1*C1/D1</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
